--- a/biology/Origine et évolution du vivant/Fardeau_génétique/Fardeau_génétique.xlsx
+++ b/biology/Origine et évolution du vivant/Fardeau_génétique/Fardeau_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fardeau_g%C3%A9n%C3%A9tique</t>
+          <t>Fardeau_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fardeau génétique aussi dit genetic load (en), est un terme utilisé pour la première fois par H. J. Muller en 1950, il désigne l’ensemble des mutations génétiques défavorables dans une population.
 La présence, au sein d’une population, d’individus avec des génotypes différents indique que la valeur sélective (fitness) de la population n’est pas optimale. Le fardeau génétique pointe un déficit d’adaptation dans une population et une baisse de la valeur sélective globale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fardeau_g%C3%A9n%C3%A9tique</t>
+          <t>Fardeau_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Calcul du fardeau génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fardeau génétique, noté L, peut être mesuré par :
 L = 1 – w / wmax
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fardeau_g%C3%A9n%C3%A9tique</t>
+          <t>Fardeau_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Composantes du fardeau génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le fardeau génétique a trois composantes :
 Le fardeau de mutation : l’apparition de mutations délétères chez les individus.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fardeau_g%C3%A9n%C3%A9tique</t>
+          <t>Fardeau_génétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Limites du concept de fardeau génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le fardeau génétique, en tant que déficit d’adaptation, ne se conçoit que pour une population isolée, qui exploite un milieu stable et constant :
 Milieu stable dans l’espace : si une espèce exploite des milieux différents et si des échanges d’individus entre les populations de ces milieux ont lieu - ou des échanges de gènes à travers la reproduction entre membres des différents milieux - alors il est impossible qu’un génotype optimal pour chacun de ces milieux soit sélectionné. La migration des gènes entretient le fardeau génétique de chacune des populations.
